--- a/data/trans_orig/IP07C20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C20-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD4915A7-2032-4268-801F-AF4E538EA9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26407D4A-7D5D-49E6-A85B-B4020E5FB683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0688BD99-6760-414E-92C5-FD1D0EE767E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A90D5BB-7A2E-4A67-95A8-6854E55E2764}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="706">
   <si>
     <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,2119 +76,2086 @@
     <t>25,68%</t>
   </si>
   <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
     <t>7,05%</t>
   </si>
   <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
     <t>51,99%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>32,87%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 43,54%)</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>4,61%</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A2A63A-D95F-4ADC-B4F4-42FC187AF8A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA78AF9-FD46-4A57-9BF0-C1C2472E1D05}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3203,10 +3170,10 @@
         <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3215,13 +3182,13 @@
         <v>3097</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3203,13 @@
         <v>557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3251,13 +3218,13 @@
         <v>616</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3266,7 +3233,7 @@
         <v>1174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
@@ -3574,7 +3541,7 @@
         <v>2680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>129</v>
@@ -3684,7 +3651,7 @@
         <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3666,13 @@
         <v>20711</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -3714,13 +3681,13 @@
         <v>16810</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -3729,13 +3696,13 @@
         <v>37521</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3717,13 @@
         <v>14098</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -3765,13 +3732,13 @@
         <v>17052</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -3780,13 +3747,13 @@
         <v>31151</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3768,13 @@
         <v>1907</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -3816,13 +3783,13 @@
         <v>1798</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3831,13 +3798,13 @@
         <v>3705</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3819,13 @@
         <v>483</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3867,13 +3834,13 @@
         <v>1264</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3882,13 +3849,13 @@
         <v>1748</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3911,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3956,13 +3923,13 @@
         <v>25698</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -3971,13 +3938,13 @@
         <v>14476</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>55</v>
@@ -3986,13 +3953,13 @@
         <v>40174</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3974,13 @@
         <v>35264</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -4022,13 +3989,13 @@
         <v>37333</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>100</v>
@@ -4037,13 +4004,13 @@
         <v>72597</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4025,13 @@
         <v>23303</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -4073,13 +4040,13 @@
         <v>18844</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>59</v>
@@ -4088,13 +4055,13 @@
         <v>42147</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4076,13 @@
         <v>2591</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -4124,13 +4091,13 @@
         <v>4787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4139,13 +4106,13 @@
         <v>7377</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4127,13 @@
         <v>1273</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -4175,13 +4142,13 @@
         <v>2870</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -4190,13 +4157,13 @@
         <v>4143</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4231,13 @@
         <v>79801</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>97</v>
@@ -4279,13 +4246,13 @@
         <v>63499</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
         <v>217</v>
@@ -4294,13 +4261,13 @@
         <v>143299</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4282,13 @@
         <v>125595</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>193</v>
@@ -4330,13 +4297,13 @@
         <v>132513</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M35" s="7">
         <v>381</v>
@@ -4345,13 +4312,13 @@
         <v>258108</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4333,13 @@
         <v>89409</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>117</v>
@@ -4384,10 +4351,10 @@
         <v>68</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>252</v>
@@ -4396,13 +4363,13 @@
         <v>166921</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,10 +4387,10 @@
         <v>118</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -4435,10 +4402,10 @@
         <v>76</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>33</v>
@@ -4447,13 +4414,13 @@
         <v>22151</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4435,13 @@
         <v>4332</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -4483,13 +4450,13 @@
         <v>5412</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>15</v>
@@ -4498,13 +4465,13 @@
         <v>9744</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4527,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4581,7 +4548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B478E509-9753-42B2-B62A-DD27E220CBB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E580AA53-24B2-48A7-B68D-B7358B90FB9B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4598,7 +4565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4705,13 +4672,13 @@
         <v>3444</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4720,13 +4687,13 @@
         <v>4751</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4735,13 +4702,13 @@
         <v>8195</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4723,13 @@
         <v>7890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4771,13 +4738,13 @@
         <v>4095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4786,13 +4753,13 @@
         <v>11984</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4774,13 @@
         <v>3157</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4822,13 +4789,13 @@
         <v>2429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4837,13 +4804,13 @@
         <v>5585</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4846,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4894,7 +4861,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,7 +4897,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4945,7 +4912,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +4980,13 @@
         <v>19018</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -5028,13 +4995,13 @@
         <v>20296</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -5043,13 +5010,13 @@
         <v>39315</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5031,13 @@
         <v>21277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -5079,13 +5046,13 @@
         <v>19115</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -5094,13 +5061,13 @@
         <v>40393</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5082,13 @@
         <v>10590</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -5130,13 +5097,13 @@
         <v>11146</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>310</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
         <v>32</v>
@@ -5145,13 +5112,13 @@
         <v>21736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5133,13 @@
         <v>3516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5187,7 +5154,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5196,13 +5163,13 @@
         <v>3516</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5184,13 @@
         <v>3085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5232,13 +5199,13 @@
         <v>697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5247,13 +5214,13 @@
         <v>3782</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5288,13 @@
         <v>31116</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -5336,13 +5303,13 @@
         <v>33964</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -5351,13 +5318,13 @@
         <v>65080</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5339,13 @@
         <v>36639</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -5387,13 +5354,13 @@
         <v>36461</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -5402,13 +5369,13 @@
         <v>73101</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5390,13 @@
         <v>22275</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -5438,13 +5405,13 @@
         <v>23605</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M18" s="7">
         <v>69</v>
@@ -5453,13 +5420,13 @@
         <v>45880</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5441,13 @@
         <v>2593</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -5489,13 +5456,13 @@
         <v>1777</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5504,13 +5471,13 @@
         <v>4369</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5492,13 @@
         <v>1897</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5546,7 +5513,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5555,13 +5522,13 @@
         <v>3201</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5596,13 @@
         <v>32703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5644,13 +5611,13 @@
         <v>23030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -5659,13 +5626,13 @@
         <v>55733</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5647,13 @@
         <v>13786</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -5695,13 +5662,13 @@
         <v>21460</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M23" s="7">
         <v>56</v>
@@ -5710,13 +5677,13 @@
         <v>35246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5698,13 @@
         <v>15899</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -5746,7 +5713,7 @@
         <v>14912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>386</v>
+        <v>235</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>387</v>
@@ -5785,10 +5752,10 @@
         <v>392</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -5797,13 +5764,13 @@
         <v>4497</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5815,10 +5782,10 @@
         <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5800,13 @@
         <v>2232</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5848,13 +5815,13 @@
         <v>1269</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5863,13 +5830,13 @@
         <v>3501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>213</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,7 +5892,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5937,13 +5904,13 @@
         <v>25994</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H28" s="7">
         <v>42</v>
@@ -5952,13 +5919,13 @@
         <v>32287</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -5967,13 +5934,13 @@
         <v>58281</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,28 +5955,28 @@
         <v>36034</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>39</v>
       </c>
       <c r="I29" s="7">
-        <v>30023</v>
+        <v>30024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -6018,13 +5985,13 @@
         <v>66057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,28 +6006,28 @@
         <v>17676</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
       </c>
       <c r="I30" s="7">
-        <v>18352</v>
+        <v>18353</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -6069,13 +6036,13 @@
         <v>36029</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6057,13 @@
         <v>7306</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6105,13 +6072,13 @@
         <v>4360</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -6123,10 +6090,10 @@
         <v>31</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>86</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6108,13 @@
         <v>2844</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6162,7 +6129,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6171,13 +6138,13 @@
         <v>2844</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,7 +6171,7 @@
         <v>109</v>
       </c>
       <c r="I33" s="7">
-        <v>85023</v>
+        <v>85024</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>45</v>
@@ -6245,13 +6212,13 @@
         <v>112274</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H34" s="7">
         <v>161</v>
@@ -6260,13 +6227,13 @@
         <v>114329</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M34" s="7">
         <v>325</v>
@@ -6275,13 +6242,13 @@
         <v>226603</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6263,13 @@
         <v>115626</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>457</v>
+        <v>230</v>
       </c>
       <c r="H35" s="7">
         <v>160</v>
@@ -6311,13 +6278,13 @@
         <v>111154</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M35" s="7">
         <v>328</v>
@@ -6326,13 +6293,13 @@
         <v>226780</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6314,13 @@
         <v>69596</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H36" s="7">
         <v>100</v>
@@ -6362,13 +6329,13 @@
         <v>70444</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M36" s="7">
         <v>203</v>
@@ -6377,13 +6344,13 @@
         <v>140041</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +6365,13 @@
         <v>17876</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H37" s="7">
         <v>15</v>
@@ -6413,13 +6380,13 @@
         <v>10634</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -6428,13 +6395,13 @@
         <v>28510</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>205</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6416,13 @@
         <v>10058</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -6464,13 +6431,13 @@
         <v>3269</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>172</v>
+        <v>481</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M38" s="7">
         <v>18</v>
@@ -6479,13 +6446,13 @@
         <v>13328</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,7 +6508,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6562,7 +6529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF84428-ACC4-40FD-9350-5A887BE48111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC150409-2DC4-4EF4-BCF7-6D5DFECE7ECA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6579,7 +6546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6686,13 +6653,13 @@
         <v>6336</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6701,13 +6668,13 @@
         <v>4422</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6716,13 +6683,13 @@
         <v>10758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>496</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6704,13 @@
         <v>4500</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6752,13 +6719,13 @@
         <v>4647</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6767,13 +6734,13 @@
         <v>9147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>506</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,13 +6755,13 @@
         <v>1563</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6803,13 +6770,13 @@
         <v>1616</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>510</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6818,13 +6785,13 @@
         <v>3179</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>512</v>
+        <v>318</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6854,13 +6821,13 @@
         <v>2039</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6869,13 +6836,13 @@
         <v>2039</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>66</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6857,13 @@
         <v>809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6911,7 +6878,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6920,13 +6887,13 @@
         <v>809</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,10 +6964,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -7009,13 +6976,13 @@
         <v>10134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -7024,13 +6991,13 @@
         <v>24989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>528</v>
+        <v>385</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7012,13 @@
         <v>17870</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -7060,13 +7027,13 @@
         <v>18515</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -7075,13 +7042,13 @@
         <v>36385</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>536</v>
+        <v>454</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7063,13 @@
         <v>18061</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -7111,13 +7078,13 @@
         <v>16404</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -7126,13 +7093,13 @@
         <v>34465</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7114,13 @@
         <v>3239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -7162,13 +7129,13 @@
         <v>5496</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -7177,13 +7144,13 @@
         <v>8735</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7165,13 @@
         <v>3812</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -7213,13 +7180,13 @@
         <v>5069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7228,13 +7195,13 @@
         <v>8881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>553</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,13 +7269,13 @@
         <v>24991</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -7317,13 +7284,13 @@
         <v>18271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>569</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -7332,13 +7299,13 @@
         <v>43262</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7320,13 @@
         <v>42718</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -7368,13 +7335,13 @@
         <v>39699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -7383,13 +7350,13 @@
         <v>82417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7371,13 @@
         <v>30087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -7419,13 +7386,13 @@
         <v>35721</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M18" s="7">
         <v>96</v>
@@ -7434,13 +7401,13 @@
         <v>65808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>587</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7422,13 @@
         <v>4829</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -7470,13 +7437,13 @@
         <v>6079</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>583</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -7485,13 +7452,13 @@
         <v>10908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7473,13 @@
         <v>1386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -7521,13 +7488,13 @@
         <v>3127</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -7536,13 +7503,13 @@
         <v>4513</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>592</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7610,13 +7577,13 @@
         <v>21904</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>597</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -7625,13 +7592,13 @@
         <v>25277</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -7640,13 +7607,13 @@
         <v>47181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7628,13 @@
         <v>26102</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -7676,13 +7643,13 @@
         <v>16084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>606</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -7691,13 +7658,13 @@
         <v>42186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>615</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7679,13 @@
         <v>20991</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -7727,13 +7694,13 @@
         <v>19361</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="M24" s="7">
         <v>58</v>
@@ -7742,13 +7709,13 @@
         <v>40352</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7730,13 @@
         <v>5625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7778,13 +7745,13 @@
         <v>6583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>622</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>479</v>
+        <v>623</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -7793,13 +7760,13 @@
         <v>12208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>631</v>
+        <v>585</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,7 +7787,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -7829,13 +7796,13 @@
         <v>2603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>634</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>635</v>
+        <v>581</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -7844,13 +7811,13 @@
         <v>2603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>638</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7873,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7918,13 +7885,13 @@
         <v>19763</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="H28" s="7">
         <v>41</v>
@@ -7933,13 +7900,13 @@
         <v>31652</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="M28" s="7">
         <v>68</v>
@@ -7948,13 +7915,13 @@
         <v>51416</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>636</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>637</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>645</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7936,13 @@
         <v>39795</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>648</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -7984,13 +7951,13 @@
         <v>31507</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>650</v>
+        <v>286</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="M29" s="7">
         <v>94</v>
@@ -7999,13 +7966,13 @@
         <v>71301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,13 +7987,13 @@
         <v>26727</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>111</v>
+        <v>647</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -8035,13 +8002,13 @@
         <v>27084</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>659</v>
+        <v>495</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -8050,13 +8017,13 @@
         <v>53811</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>661</v>
+        <v>280</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,13 +8038,13 @@
         <v>10503</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -8086,13 +8053,13 @@
         <v>9023</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -8101,13 +8068,13 @@
         <v>19526</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8122,13 +8089,13 @@
         <v>2740</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>661</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -8137,13 +8104,13 @@
         <v>3034</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>672</v>
+        <v>586</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>673</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -8152,13 +8119,13 @@
         <v>5774</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>676</v>
+        <v>319</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8193,13 @@
         <v>87849</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="H34" s="7">
         <v>127</v>
@@ -8241,13 +8208,13 @@
         <v>89756</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -8256,13 +8223,13 @@
         <v>177605</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>386</v>
+        <v>672</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8244,13 @@
         <v>130983</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>687</v>
+        <v>508</v>
       </c>
       <c r="H35" s="7">
         <v>158</v>
@@ -8292,13 +8259,13 @@
         <v>110452</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="M35" s="7">
         <v>338</v>
@@ -8307,13 +8274,13 @@
         <v>241436</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8328,13 +8295,13 @@
         <v>97429</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="H36" s="7">
         <v>142</v>
@@ -8343,13 +8310,13 @@
         <v>100186</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="M36" s="7">
         <v>275</v>
@@ -8358,13 +8325,13 @@
         <v>197615</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8379,13 +8346,13 @@
         <v>24195</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>170</v>
+        <v>691</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>703</v>
+        <v>442</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="H37" s="7">
         <v>43</v>
@@ -8394,13 +8361,13 @@
         <v>29220</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="M37" s="7">
         <v>76</v>
@@ -8409,13 +8376,13 @@
         <v>53415</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8430,13 +8397,13 @@
         <v>8746</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>713</v>
+        <v>121</v>
       </c>
       <c r="H38" s="7">
         <v>20</v>
@@ -8448,10 +8415,10 @@
         <v>76</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="M38" s="7">
         <v>32</v>
@@ -8460,13 +8427,13 @@
         <v>22580</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>595</v>
+        <v>703</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,7 +8489,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
